--- a/pathfile builder tip.xlsx
+++ b/pathfile builder tip.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18990" windowHeight="11310" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="18990" windowHeight="11190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="CField" sheetId="4" r:id="rId4"/>
     <sheet name="function" sheetId="5" r:id="rId5"/>
     <sheet name="Group" sheetId="6" r:id="rId6"/>
+    <sheet name="config section" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
   <si>
     <t>Empty</t>
   </si>
@@ -447,13 +448,130 @@
   </si>
   <si>
     <t>Transaction_Accounts</t>
+  </si>
+  <si>
+    <t>U_FieldsMap</t>
+  </si>
+  <si>
+    <t>U_RelatedDataSheet</t>
+  </si>
+  <si>
+    <t>U_NormalFields</t>
+  </si>
+  <si>
+    <t>U_ConditionalField</t>
+  </si>
+  <si>
+    <t>U_DisplayFields</t>
+  </si>
+  <si>
+    <t>U_BalanceField</t>
+  </si>
+  <si>
+    <t>U_SortOutput</t>
+  </si>
+  <si>
+    <t>U_FakedFields</t>
+  </si>
+  <si>
+    <t>U_THCHeadDescription</t>
+  </si>
+  <si>
+    <t>U_OBSItems</t>
+  </si>
+  <si>
+    <t>U_AcceptableValues</t>
+  </si>
+  <si>
+    <t>U_ValueCheckFields</t>
+  </si>
+  <si>
+    <t>U_MSRDataSheet</t>
+  </si>
+  <si>
+    <t>Fields Map</t>
+  </si>
+  <si>
+    <t>Related Data Sheet</t>
+  </si>
+  <si>
+    <t>Normal Fields</t>
+  </si>
+  <si>
+    <t>ConditionalField</t>
+  </si>
+  <si>
+    <t>DisplayFields</t>
+  </si>
+  <si>
+    <t>BalanceField</t>
+  </si>
+  <si>
+    <t>SortOutput</t>
+  </si>
+  <si>
+    <t>FakedFields</t>
+  </si>
+  <si>
+    <t>THCHeadDescription</t>
+  </si>
+  <si>
+    <t>OBS Items</t>
+  </si>
+  <si>
+    <t>AcceptableValues</t>
+  </si>
+  <si>
+    <t>ValueCheckFields</t>
+  </si>
+  <si>
+    <t>MSR Data Sheet</t>
+  </si>
+  <si>
+    <t>allTHeads</t>
+  </si>
+  <si>
+    <t>normals</t>
+  </si>
+  <si>
+    <t>ConfigMain</t>
+  </si>
+  <si>
+    <t>MSRDataSheet</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>balanceHead</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>faked</t>
+  </si>
+  <si>
+    <t>tHeads</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>accepts</t>
+  </si>
+  <si>
+    <t>validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -508,6 +626,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -586,6 +709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -620,6 +744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
@@ -803,7 +928,7 @@
       <selection activeCell="F1" sqref="F1:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
@@ -813,7 +938,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -836,7 +961,7 @@
         <v>arr(CellProp.src) = Empty</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -859,7 +984,7 @@
         <v>arr(CellProp.fmtValue) = Empty</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -882,7 +1007,7 @@
         <v>arr(CellProp.type_name) = vbNullString</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -896,7 +1021,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -919,7 +1044,7 @@
         <v>arr(CellProp.isError_) = FALSE</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -942,7 +1067,7 @@
         <v>arr(CellProp.isEmpty_) = FALSE</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -965,7 +1090,7 @@
         <v>arr(CellProp.isNull_) = FALSE</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -988,7 +1113,7 @@
         <v>arr(CellProp.isDate_) = FALSE</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1002,7 +1127,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1150,7 @@
         <v>arr(CellProp.isNumeric_) = FALSE</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1173,7 @@
         <v>arr(CellProp.IsNumber) = FALSE</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1196,7 @@
         <v>arr(CellProp.isDateEx) = FALSE</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1094,7 +1219,7 @@
         <v>arr(CellProp.isBlank_) = FALSE</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1242,7 @@
         <v>arr(CellProp.isString) = FALSE</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1131,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1279,7 @@
         <v>arr(CellProp.date_) = 0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1302,7 @@
         <v>arr(CellProp.num) = 0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1325,7 @@
         <v>arr(CellProp.Str) = vbNullString</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1348,7 @@
         <v>arr(CellProp.str_trim) = vbNullString</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1237,7 +1362,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1251,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1274,7 +1399,7 @@
         <v>arr(CellProp.column_id) = 0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1422,7 @@
         <v>arr(CellProp.thcName) = vbNullString</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1445,7 @@
         <v>arr(CellProp.thcDesc) = vbNullString</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1343,7 +1468,7 @@
         <v>arr(CellProp.isAccept) = FALSE</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1366,7 +1491,7 @@
         <v>arr(CellProp.isErrTHC) = FALSE</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1514,7 @@
         <v>arr(CellProp.return_type) = ReturnType.Const_</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -1420,21 +1545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1567,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1583,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1599,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1607,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +1615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B4"/>
   <sheetViews>
@@ -1513,9 +1638,9 @@
       <selection activeCell="B4" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1523,12 +1648,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1548,14 +1673,14 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1708,7 @@
         <v>arr(FieldProp.column_Id) = m_columnId</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1736,7 @@
         <v>arr(FieldProp.name_) = m_name</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>82</v>
       </c>
@@ -1626,7 +1751,7 @@
         <v>arr(FieldProp.name_trim) = m_name_trim</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1654,7 +1779,7 @@
         <v>arr(FieldProp.thc_name) = m_thcName</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1682,7 +1807,7 @@
         <v>arr(FieldProp.thc_desc) = m_thcDesc</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1710,7 +1835,7 @@
         <v>arr(FieldProp.is_validate) = m_isValidate</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1738,7 +1863,7 @@
         <v>arr(FieldProp.is_err_thc) = m_isErrTHC</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1766,7 +1891,7 @@
         <v>arr(FieldProp.return_type) = m_returnType</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1801,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1809,7 +1934,7 @@
       <selection activeCell="D10" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -1817,7 +1942,7 @@
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1844,7 +1969,7 @@
         <v>retVal.Add EFN_CONST, BuildExpFunciton(AddressOf ef_const, EFN_CONST, 1)</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1871,7 +1996,7 @@
         <v>retVal.Add EFN_LINK, BuildExpFunciton(AddressOf ef_link, EFN_LINK, 1)</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1898,7 +2023,7 @@
         <v>retVal.Add EFN_JOIN_STR, BuildExpFunciton(AddressOf ef_join_str, EFN_JOIN_STR, 2)</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1925,7 +2050,7 @@
         <v>retVal.Add EFN_PLUS, BuildExpFunciton(AddressOf ef_plus, EFN_PLUS, 2)</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1952,7 +2077,7 @@
         <v>retVal.Add EFN_MINUS, BuildExpFunciton(AddressOf ef_minus, EFN_MINUS, 2)</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1979,7 +2104,7 @@
         <v>retVal.Add EFN_LESS_THAN, BuildExpFunciton(AddressOf ef_less_than, EFN_LESS_THAN, 2)</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -2006,7 +2131,7 @@
         <v>retVal.Add EFN_MORE_THAN, BuildExpFunciton(AddressOf ef_more_than, EFN_MORE_THAN, 2)</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2033,7 +2158,7 @@
         <v>retVal.Add EFN_MULTIPLY, BuildExpFunciton(AddressOf ef_multiply, EFN_MULTIPLY, 2)</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2060,7 +2185,7 @@
         <v>retVal.Add EFN_DIVIDE, BuildExpFunciton(AddressOf ef_divide, EFN_DIVIDE, 2)</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2087,7 +2212,7 @@
         <v>retVal.Add EFN_EQUAL, BuildExpFunciton(AddressOf ef_equal, EFN_EQUAL, 2)</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2114,7 +2239,7 @@
         <v>retVal.Add EFN_IF, BuildExpFunciton(AddressOf ef_if, EFN_IF, 3)</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2141,7 +2266,7 @@
         <v>retVal.Add EFN_GETREPORTDATE, BuildExpFunciton(AddressOf ef_getreportdate, EFN_GETREPORTDATE, -1)</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -2168,7 +2293,7 @@
         <v>retVal.Add EFN_EDATE, BuildExpFunciton(AddressOf ef_edate, EFN_EDATE, 2)</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2195,7 +2320,7 @@
         <v>retVal.Add EFN_IS_NUMBER, BuildExpFunciton(AddressOf ef_is_number, EFN_IS_NUMBER, 1)</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -2222,7 +2347,7 @@
         <v>retVal.Add EFN_INT, BuildExpFunciton(AddressOf ef_int, EFN_INT, 1)</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2249,7 +2374,7 @@
         <v>retVal.Add EFN_VALUE, BuildExpFunciton(AddressOf ef_value, EFN_VALUE, 1)</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -2276,7 +2401,7 @@
         <v>retVal.Add EFN_LEFT, BuildExpFunciton(AddressOf ef_left, EFN_LEFT, 2)</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -2311,21 +2436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2466,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "INVESTMENT", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.INVESTMENT_</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2357,7 +2482,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Federal", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Federal_</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2373,7 +2498,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "LOANS", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.LOANS_</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -2389,7 +2514,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "LOAN", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.LOAN_</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -2405,7 +2530,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Other-Asset", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Other_Asset_</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2546,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "CD", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.CD_</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -2437,7 +2562,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Non-Interest-Bearing Account", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Non_Interest_Bearing_Account_</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2453,7 +2578,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Passbook Accounts", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Passbook_Accounts_</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2469,7 +2594,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Transaction Accounts", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Transaction_Accounts_</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -2485,7 +2610,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "MMDAs", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.MMDAs_</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2501,7 +2626,7 @@
         <v>ElseIf (StrComp(GroupReinvest, "Borrowing", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Borrowing_</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2515,6 +2640,432 @@
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>ElseIf (StrComp(GroupReinvest, "Other-Liability", vbTextCompare) = 0) Then GetGroupReinvestType = GROUPCategory.Other_Liability_</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="str">
+        <f>REPLACE(A1,1,1,"UKW")</f>
+        <v>UKW_FieldsMap</v>
+      </c>
+      <c r="D1" t="str">
+        <f>REPLACE(A1,1,1,"KW")</f>
+        <v>KW_FieldsMap</v>
+      </c>
+      <c r="E1" t="str">
+        <f>REPLACE(A1,1,2,"")</f>
+        <v>FieldsMap</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"."&amp;C1&amp;" = UCase("&amp;D1&amp;")"</f>
+        <v>.UKW_FieldsMap = UCase(KW_FieldsMap)</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"Case UKW."&amp;E1&amp;": section = TSection."&amp;F1</f>
+        <v>Case UKW.FieldsMap: section = TSection.allTHeads</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C13" si="0">REPLACE(A2,1,1,"UKW")</f>
+        <v>UKW_RelatedDataSheet</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D13" si="1">REPLACE(A2,1,1,"KW")</f>
+        <v>KW_RelatedDataSheet</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E13" si="2">REPLACE(A2,1,2,"")</f>
+        <v>RelatedDataSheet</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G13" si="3">"."&amp;C2&amp;" = UCase("&amp;D2&amp;")"</f>
+        <v>.UKW_RelatedDataSheet = UCase(KW_RelatedDataSheet)</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H13" si="4">"Case UKW."&amp;E2&amp;": section = TSection."&amp;F2</f>
+        <v>Case UKW.RelatedDataSheet: section = TSection.ConfigMain</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_NormalFields</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_NormalFields</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>NormalFields</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_NormalFields = UCase(KW_NormalFields)</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.NormalFields: section = TSection.normals</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_ConditionalField</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_ConditionalField</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>ConditionalField</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_ConditionalField = UCase(KW_ConditionalField)</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.ConditionalField: section = TSection.conditions</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_DisplayFields</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_DisplayFields</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>DisplayFields</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_DisplayFields = UCase(KW_DisplayFields)</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.DisplayFields: section = TSection.display</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_BalanceField</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_BalanceField</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>BalanceField</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_BalanceField = UCase(KW_BalanceField)</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.BalanceField: section = TSection.balanceHead</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_SortOutput</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_SortOutput</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>SortOutput</v>
+      </c>
+      <c r="F7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_SortOutput = UCase(KW_SortOutput)</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.SortOutput: section = TSection.sort</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_FakedFields</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_FakedFields</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>FakedFields</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_FakedFields = UCase(KW_FakedFields)</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.FakedFields: section = TSection.faked</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_THCHeadDescription</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_THCHeadDescription</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>THCHeadDescription</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_THCHeadDescription = UCase(KW_THCHeadDescription)</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.THCHeadDescription: section = TSection.tHeads</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_OBSItems</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_OBSItems</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>OBSItems</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_OBSItems = UCase(KW_OBSItems)</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.OBSItems: section = TSection.obs</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_AcceptableValues</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_AcceptableValues</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>AcceptableValues</v>
+      </c>
+      <c r="F11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_AcceptableValues = UCase(KW_AcceptableValues)</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.AcceptableValues: section = TSection.accepts</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_ValueCheckFields</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_ValueCheckFields</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueCheckFields</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_ValueCheckFields = UCase(KW_ValueCheckFields)</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.ValueCheckFields: section = TSection.validation</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>UKW_MSRDataSheet</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>KW_MSRDataSheet</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>MSRDataSheet</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>.UKW_MSRDataSheet = UCase(KW_MSRDataSheet)</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>Case UKW.MSRDataSheet: section = TSection.MSRDataSheet</v>
       </c>
     </row>
   </sheetData>

--- a/pathfile builder tip.xlsx
+++ b/pathfile builder tip.xlsx
@@ -2692,8 +2692,8 @@
         <v>.UKW_FieldsMap = UCase(KW_FieldsMap)</v>
       </c>
       <c r="H1" t="str">
-        <f>"Case UKW."&amp;E1&amp;": section = TSection."&amp;F1</f>
-        <v>Case UKW.FieldsMap: section = TSection.allTHeads</v>
+        <f>"m_cnt"&amp;E1&amp;"=0"</f>
+        <v>m_cntFieldsMap=0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,8 +2723,8 @@
         <v>.UKW_RelatedDataSheet = UCase(KW_RelatedDataSheet)</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H13" si="4">"Case UKW."&amp;E2&amp;": section = TSection."&amp;F2</f>
-        <v>Case UKW.RelatedDataSheet: section = TSection.ConfigMain</v>
+        <f t="shared" ref="H2:H13" si="4">"m_cnt"&amp;E2&amp;"=0"</f>
+        <v>m_cntRelatedDataSheet=0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.NormalFields: section = TSection.normals</v>
+        <v>m_cntNormalFields=0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.ConditionalField: section = TSection.conditions</v>
+        <v>m_cntConditionalField=0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.DisplayFields: section = TSection.display</v>
+        <v>m_cntDisplayFields=0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.BalanceField: section = TSection.balanceHead</v>
+        <v>m_cntBalanceField=0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.SortOutput: section = TSection.sort</v>
+        <v>m_cntSortOutput=0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.FakedFields: section = TSection.faked</v>
+        <v>m_cntFakedFields=0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.THCHeadDescription: section = TSection.tHeads</v>
+        <v>m_cntTHCHeadDescription=0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.OBSItems: section = TSection.obs</v>
+        <v>m_cntOBSItems=0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.AcceptableValues: section = TSection.accepts</v>
+        <v>m_cntAcceptableValues=0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.ValueCheckFields: section = TSection.validation</v>
+        <v>m_cntValueCheckFields=0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
-        <v>Case UKW.MSRDataSheet: section = TSection.MSRDataSheet</v>
+        <v>m_cntMSRDataSheet=0</v>
       </c>
     </row>
   </sheetData>

--- a/pathfile builder tip.xlsx
+++ b/pathfile builder tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="18990" windowHeight="11190" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="18990" windowHeight="11130" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2649,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H13"/>
+      <selection activeCell="I1" sqref="I1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2665,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -2695,8 +2695,12 @@
         <f>"m_cnt"&amp;E1&amp;"=0"</f>
         <v>m_cntFieldsMap=0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="str">
+        <f>"Private Sub exec"&amp;E1&amp;"()"</f>
+        <v>Private Sub execFieldsMap()</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2726,8 +2730,12 @@
         <f t="shared" ref="H2:H13" si="4">"m_cnt"&amp;E2&amp;"=0"</f>
         <v>m_cntRelatedDataSheet=0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I13" si="5">"Private Sub exec"&amp;E2&amp;"()"</f>
+        <v>Private Sub execRelatedDataSheet()</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2757,8 +2765,12 @@
         <f t="shared" si="4"/>
         <v>m_cntNormalFields=0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execNormalFields()</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -2788,8 +2800,12 @@
         <f t="shared" si="4"/>
         <v>m_cntConditionalField=0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execConditionalField()</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2819,8 +2835,12 @@
         <f t="shared" si="4"/>
         <v>m_cntDisplayFields=0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execDisplayFields()</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -2850,8 +2870,12 @@
         <f t="shared" si="4"/>
         <v>m_cntBalanceField=0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execBalanceField()</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -2881,8 +2905,12 @@
         <f t="shared" si="4"/>
         <v>m_cntSortOutput=0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execSortOutput()</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -2912,8 +2940,12 @@
         <f t="shared" si="4"/>
         <v>m_cntFakedFields=0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execFakedFields()</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -2943,8 +2975,12 @@
         <f t="shared" si="4"/>
         <v>m_cntTHCHeadDescription=0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execTHCHeadDescription()</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -2974,8 +3010,12 @@
         <f t="shared" si="4"/>
         <v>m_cntOBSItems=0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execOBSItems()</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -3005,8 +3045,12 @@
         <f t="shared" si="4"/>
         <v>m_cntAcceptableValues=0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execAcceptableValues()</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -3036,8 +3080,12 @@
         <f t="shared" si="4"/>
         <v>m_cntValueCheckFields=0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execValueCheckFields()</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -3066,6 +3114,10 @@
       <c r="H13" t="str">
         <f t="shared" si="4"/>
         <v>m_cntMSRDataSheet=0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>Private Sub execMSRDataSheet()</v>
       </c>
     </row>
   </sheetData>
